--- a/REGULAR/JULIA, MARILYN.xlsx
+++ b/REGULAR/JULIA, MARILYN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="382">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1176,6 +1176,18 @@
   </si>
   <si>
     <t>JULIA, MARILYN</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1615,173 +1627,6 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1976,12 +1821,179 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2055,7 +2067,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2110,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2174,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2234,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2300,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2363,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2461,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2520,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2585,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2616,7 +2628,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2703,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2889,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2955,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3001,7 +3013,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3067,7 +3079,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3135,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3198,7 +3210,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,7 +3253,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3319,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,7 +3375,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,7 +3473,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3524,7 +3536,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,25 +3602,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K542" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K595" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3620,13 +3632,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DAYS"/>
     <tableColumn id="2" name="HOURS"/>
     <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="20">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3635,14 +3647,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="17"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="16">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="15">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3968,12 +3980,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K542"/>
+  <dimension ref="A2:K595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="5175" topLeftCell="A538"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="3525" topLeftCell="A563" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H542" sqref="H542"/>
+      <selection pane="bottomLeft" activeCell="E597" sqref="E597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4134,7 +4146,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>90.94500000000005</v>
+        <v>135.19500000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4144,7 +4156,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>105</v>
+        <v>166.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16348,6 +16360,1074 @@
       <c r="K542" s="20" t="s">
         <v>376</v>
       </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A543" s="40">
+        <v>43678</v>
+      </c>
+      <c r="B543" s="20"/>
+      <c r="C543" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D543" s="39"/>
+      <c r="E543" s="9"/>
+      <c r="F543" s="20"/>
+      <c r="G543" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H543" s="39"/>
+      <c r="I543" s="9"/>
+      <c r="J543" s="11"/>
+      <c r="K543" s="20"/>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A544" s="40">
+        <v>43709</v>
+      </c>
+      <c r="B544" s="20"/>
+      <c r="C544" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D544" s="39"/>
+      <c r="E544" s="9"/>
+      <c r="F544" s="20"/>
+      <c r="G544" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H544" s="39"/>
+      <c r="I544" s="9"/>
+      <c r="J544" s="11"/>
+      <c r="K544" s="20"/>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A545" s="40">
+        <v>43739</v>
+      </c>
+      <c r="B545" s="20"/>
+      <c r="C545" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D545" s="39"/>
+      <c r="E545" s="9"/>
+      <c r="F545" s="20"/>
+      <c r="G545" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H545" s="39"/>
+      <c r="I545" s="9"/>
+      <c r="J545" s="11"/>
+      <c r="K545" s="20"/>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A546" s="40">
+        <v>43770</v>
+      </c>
+      <c r="B546" s="20"/>
+      <c r="C546" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D546" s="39"/>
+      <c r="E546" s="9"/>
+      <c r="F546" s="20"/>
+      <c r="G546" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H546" s="39"/>
+      <c r="I546" s="9"/>
+      <c r="J546" s="11"/>
+      <c r="K546" s="20"/>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A547" s="40">
+        <v>43800</v>
+      </c>
+      <c r="B547" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C547" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D547" s="39">
+        <v>2</v>
+      </c>
+      <c r="E547" s="9"/>
+      <c r="F547" s="20"/>
+      <c r="G547" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H547" s="39"/>
+      <c r="I547" s="9"/>
+      <c r="J547" s="11"/>
+      <c r="K547" s="20"/>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A548" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="B548" s="20"/>
+      <c r="C548" s="13"/>
+      <c r="D548" s="39"/>
+      <c r="E548" s="9"/>
+      <c r="F548" s="20"/>
+      <c r="G548" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H548" s="39"/>
+      <c r="I548" s="9"/>
+      <c r="J548" s="11"/>
+      <c r="K548" s="20"/>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A549" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B549" s="20"/>
+      <c r="C549" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D549" s="39"/>
+      <c r="E549" s="9"/>
+      <c r="F549" s="20"/>
+      <c r="G549" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H549" s="39"/>
+      <c r="I549" s="9"/>
+      <c r="J549" s="11"/>
+      <c r="K549" s="20"/>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A550" s="40">
+        <v>43862</v>
+      </c>
+      <c r="B550" s="20"/>
+      <c r="C550" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D550" s="39"/>
+      <c r="E550" s="9"/>
+      <c r="F550" s="20"/>
+      <c r="G550" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H550" s="39"/>
+      <c r="I550" s="9"/>
+      <c r="J550" s="11"/>
+      <c r="K550" s="20"/>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A551" s="40">
+        <v>43891</v>
+      </c>
+      <c r="B551" s="20"/>
+      <c r="C551" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D551" s="39"/>
+      <c r="E551" s="9"/>
+      <c r="F551" s="20"/>
+      <c r="G551" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H551" s="39"/>
+      <c r="I551" s="9"/>
+      <c r="J551" s="11"/>
+      <c r="K551" s="20"/>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A552" s="40">
+        <v>43922</v>
+      </c>
+      <c r="B552" s="20"/>
+      <c r="C552" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D552" s="39"/>
+      <c r="E552" s="9"/>
+      <c r="F552" s="20"/>
+      <c r="G552" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H552" s="39"/>
+      <c r="I552" s="9"/>
+      <c r="J552" s="11"/>
+      <c r="K552" s="20"/>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A553" s="40">
+        <v>43952</v>
+      </c>
+      <c r="B553" s="20"/>
+      <c r="C553" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D553" s="39"/>
+      <c r="E553" s="9"/>
+      <c r="F553" s="20"/>
+      <c r="G553" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H553" s="39"/>
+      <c r="I553" s="9"/>
+      <c r="J553" s="11"/>
+      <c r="K553" s="20"/>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A554" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B554" s="20"/>
+      <c r="C554" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D554" s="39"/>
+      <c r="E554" s="9"/>
+      <c r="F554" s="20"/>
+      <c r="G554" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H554" s="39"/>
+      <c r="I554" s="9"/>
+      <c r="J554" s="11"/>
+      <c r="K554" s="20"/>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B555" s="20"/>
+      <c r="C555" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D555" s="39"/>
+      <c r="E555" s="9"/>
+      <c r="F555" s="20"/>
+      <c r="G555" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H555" s="39"/>
+      <c r="I555" s="9"/>
+      <c r="J555" s="11"/>
+      <c r="K555" s="20"/>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A556" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B556" s="20"/>
+      <c r="C556" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D556" s="39"/>
+      <c r="E556" s="9"/>
+      <c r="F556" s="20"/>
+      <c r="G556" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H556" s="39"/>
+      <c r="I556" s="9"/>
+      <c r="J556" s="11"/>
+      <c r="K556" s="20"/>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" s="40">
+        <v>44075</v>
+      </c>
+      <c r="B557" s="20"/>
+      <c r="C557" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D557" s="39"/>
+      <c r="E557" s="9"/>
+      <c r="F557" s="20"/>
+      <c r="G557" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H557" s="39"/>
+      <c r="I557" s="9"/>
+      <c r="J557" s="11"/>
+      <c r="K557" s="20"/>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A558" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B558" s="20"/>
+      <c r="C558" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D558" s="39"/>
+      <c r="E558" s="9"/>
+      <c r="F558" s="20"/>
+      <c r="G558" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H558" s="39"/>
+      <c r="I558" s="9"/>
+      <c r="J558" s="11"/>
+      <c r="K558" s="20"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B559" s="20"/>
+      <c r="C559" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D559" s="39"/>
+      <c r="E559" s="9"/>
+      <c r="F559" s="20"/>
+      <c r="G559" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H559" s="39"/>
+      <c r="I559" s="9"/>
+      <c r="J559" s="11"/>
+      <c r="K559" s="20"/>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B560" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C560" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D560" s="39">
+        <v>5</v>
+      </c>
+      <c r="E560" s="9"/>
+      <c r="F560" s="20"/>
+      <c r="G560" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H560" s="39"/>
+      <c r="I560" s="9"/>
+      <c r="J560" s="11"/>
+      <c r="K560" s="20"/>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B561" s="20"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="39"/>
+      <c r="E561" s="9"/>
+      <c r="F561" s="20"/>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H561" s="39"/>
+      <c r="I561" s="9"/>
+      <c r="J561" s="11"/>
+      <c r="K561" s="20"/>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B562" s="20"/>
+      <c r="C562" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D562" s="39"/>
+      <c r="E562" s="9"/>
+      <c r="F562" s="20"/>
+      <c r="G562" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H562" s="39"/>
+      <c r="I562" s="9"/>
+      <c r="J562" s="11"/>
+      <c r="K562" s="20"/>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A563" s="40">
+        <v>44228</v>
+      </c>
+      <c r="B563" s="20"/>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D563" s="39"/>
+      <c r="E563" s="9"/>
+      <c r="F563" s="20"/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H563" s="39"/>
+      <c r="I563" s="9"/>
+      <c r="J563" s="11"/>
+      <c r="K563" s="20"/>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564" s="40">
+        <v>44256</v>
+      </c>
+      <c r="B564" s="20"/>
+      <c r="C564" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D564" s="39"/>
+      <c r="E564" s="9"/>
+      <c r="F564" s="20"/>
+      <c r="G564" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H564" s="39"/>
+      <c r="I564" s="9"/>
+      <c r="J564" s="11"/>
+      <c r="K564" s="20"/>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A565" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B565" s="20"/>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D565" s="39"/>
+      <c r="E565" s="9"/>
+      <c r="F565" s="20"/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H565" s="39"/>
+      <c r="I565" s="9"/>
+      <c r="J565" s="11"/>
+      <c r="K565" s="20"/>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A566" s="40">
+        <v>44317</v>
+      </c>
+      <c r="B566" s="20"/>
+      <c r="C566" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D566" s="39"/>
+      <c r="E566" s="9"/>
+      <c r="F566" s="20"/>
+      <c r="G566" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H566" s="39"/>
+      <c r="I566" s="9"/>
+      <c r="J566" s="11"/>
+      <c r="K566" s="20"/>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A567" s="40">
+        <v>44348</v>
+      </c>
+      <c r="B567" s="20"/>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D567" s="39"/>
+      <c r="E567" s="9"/>
+      <c r="F567" s="20"/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H567" s="39"/>
+      <c r="I567" s="9"/>
+      <c r="J567" s="11"/>
+      <c r="K567" s="20"/>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A568" s="40">
+        <v>44378</v>
+      </c>
+      <c r="B568" s="20"/>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D568" s="39"/>
+      <c r="E568" s="9"/>
+      <c r="F568" s="20"/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H568" s="39"/>
+      <c r="I568" s="9"/>
+      <c r="J568" s="11"/>
+      <c r="K568" s="20"/>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B569" s="20"/>
+      <c r="C569" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D569" s="39"/>
+      <c r="E569" s="9"/>
+      <c r="F569" s="20"/>
+      <c r="G569" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H569" s="39"/>
+      <c r="I569" s="9"/>
+      <c r="J569" s="11"/>
+      <c r="K569" s="20"/>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A570" s="40">
+        <v>44440</v>
+      </c>
+      <c r="B570" s="20"/>
+      <c r="C570" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D570" s="39"/>
+      <c r="E570" s="9"/>
+      <c r="F570" s="20"/>
+      <c r="G570" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H570" s="39"/>
+      <c r="I570" s="9"/>
+      <c r="J570" s="11"/>
+      <c r="K570" s="20"/>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B571" s="20"/>
+      <c r="C571" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D571" s="39"/>
+      <c r="E571" s="9"/>
+      <c r="F571" s="20"/>
+      <c r="G571" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H571" s="39"/>
+      <c r="I571" s="9"/>
+      <c r="J571" s="11"/>
+      <c r="K571" s="20"/>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A572" s="40">
+        <v>44501</v>
+      </c>
+      <c r="B572" s="20"/>
+      <c r="C572" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D572" s="39"/>
+      <c r="E572" s="9"/>
+      <c r="F572" s="20"/>
+      <c r="G572" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H572" s="39"/>
+      <c r="I572" s="9"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="20"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B573" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C573" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D573" s="39">
+        <v>5</v>
+      </c>
+      <c r="E573" s="9"/>
+      <c r="F573" s="20"/>
+      <c r="G573" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H573" s="39"/>
+      <c r="I573" s="9"/>
+      <c r="J573" s="11"/>
+      <c r="K573" s="20"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B574" s="20"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39"/>
+      <c r="E574" s="9"/>
+      <c r="F574" s="20"/>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H574" s="39"/>
+      <c r="I574" s="9"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="20"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B575" s="20"/>
+      <c r="C575" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D575" s="39"/>
+      <c r="E575" s="9"/>
+      <c r="F575" s="20"/>
+      <c r="G575" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H575" s="39"/>
+      <c r="I575" s="9"/>
+      <c r="J575" s="11"/>
+      <c r="K575" s="20"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B576" s="20"/>
+      <c r="C576" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D576" s="39"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="20"/>
+      <c r="G576" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H576" s="39"/>
+      <c r="I576" s="9"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="20"/>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B577" s="20"/>
+      <c r="C577" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D577" s="39"/>
+      <c r="E577" s="9"/>
+      <c r="F577" s="20"/>
+      <c r="G577" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H577" s="39"/>
+      <c r="I577" s="9"/>
+      <c r="J577" s="11"/>
+      <c r="K577" s="20"/>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B578" s="20"/>
+      <c r="C578" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D578" s="39"/>
+      <c r="E578" s="9"/>
+      <c r="F578" s="20"/>
+      <c r="G578" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H578" s="39"/>
+      <c r="I578" s="9"/>
+      <c r="J578" s="11"/>
+      <c r="K578" s="20"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B579" s="20"/>
+      <c r="C579" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D579" s="39"/>
+      <c r="E579" s="9"/>
+      <c r="F579" s="20"/>
+      <c r="G579" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H579" s="39"/>
+      <c r="I579" s="9"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="20"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B580" s="20"/>
+      <c r="C580" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D580" s="39"/>
+      <c r="E580" s="9"/>
+      <c r="F580" s="20"/>
+      <c r="G580" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H580" s="39"/>
+      <c r="I580" s="9"/>
+      <c r="J580" s="11"/>
+      <c r="K580" s="20"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A581" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B581" s="20"/>
+      <c r="C581" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D581" s="39"/>
+      <c r="E581" s="9"/>
+      <c r="F581" s="20"/>
+      <c r="G581" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H581" s="39"/>
+      <c r="I581" s="9"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D582" s="39"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="20"/>
+      <c r="G582" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H582" s="39"/>
+      <c r="I582" s="9"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B583" s="20"/>
+      <c r="C583" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D583" s="39"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="20"/>
+      <c r="G583" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H583" s="39"/>
+      <c r="I583" s="9"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="20"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B584" s="20"/>
+      <c r="C584" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D584" s="39"/>
+      <c r="E584" s="9"/>
+      <c r="F584" s="20"/>
+      <c r="G584" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H584" s="39"/>
+      <c r="I584" s="9"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="20"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B585" s="20"/>
+      <c r="C585" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D585" s="39"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="20"/>
+      <c r="G585" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H585" s="39"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="20"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B586" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C586" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D586" s="39">
+        <v>5</v>
+      </c>
+      <c r="E586" s="9"/>
+      <c r="F586" s="20"/>
+      <c r="G586" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H586" s="39"/>
+      <c r="I586" s="9"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="20"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="B587" s="20"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="39"/>
+      <c r="E587" s="9"/>
+      <c r="F587" s="20"/>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="39"/>
+      <c r="I587" s="9"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="20"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B588" s="20"/>
+      <c r="C588" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D588" s="39"/>
+      <c r="E588" s="9"/>
+      <c r="F588" s="20"/>
+      <c r="G588" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H588" s="39"/>
+      <c r="I588" s="9"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="20"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B589" s="20"/>
+      <c r="C589" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D589" s="39"/>
+      <c r="E589" s="9"/>
+      <c r="F589" s="20"/>
+      <c r="G589" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H589" s="39"/>
+      <c r="I589" s="9"/>
+      <c r="J589" s="11"/>
+      <c r="K589" s="20"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B590" s="20"/>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D590" s="39"/>
+      <c r="E590" s="9"/>
+      <c r="F590" s="20"/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H590" s="39"/>
+      <c r="I590" s="9"/>
+      <c r="J590" s="11"/>
+      <c r="K590" s="20"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B591" s="20"/>
+      <c r="C591" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D591" s="39"/>
+      <c r="E591" s="9"/>
+      <c r="F591" s="20"/>
+      <c r="G591" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H591" s="39"/>
+      <c r="I591" s="9"/>
+      <c r="J591" s="11"/>
+      <c r="K591" s="20"/>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B592" s="20"/>
+      <c r="C592" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D592" s="39"/>
+      <c r="E592" s="9"/>
+      <c r="F592" s="20"/>
+      <c r="G592" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H592" s="39"/>
+      <c r="I592" s="9"/>
+      <c r="J592" s="11"/>
+      <c r="K592" s="20"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A593" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B593" s="20"/>
+      <c r="C593" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D593" s="39"/>
+      <c r="E593" s="9"/>
+      <c r="F593" s="20"/>
+      <c r="G593" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H593" s="39"/>
+      <c r="I593" s="9"/>
+      <c r="J593" s="11"/>
+      <c r="K593" s="20"/>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B594" s="20"/>
+      <c r="C594" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D594" s="39"/>
+      <c r="E594" s="9"/>
+      <c r="F594" s="20"/>
+      <c r="G594" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H594" s="39"/>
+      <c r="I594" s="9"/>
+      <c r="J594" s="11"/>
+      <c r="K594" s="20"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B595" s="20"/>
+      <c r="C595" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D595" s="39"/>
+      <c r="E595" s="9"/>
+      <c r="F595" s="20"/>
+      <c r="G595" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H595" s="39"/>
+      <c r="I595" s="9"/>
+      <c r="J595" s="11"/>
+      <c r="K595" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
